--- a/WebContent/Document/▒12.프로젝트_일정_계획및수행(PROJECTORS).xlsx
+++ b/WebContent/Document/▒12.프로젝트_일정_계획및수행(PROJECTORS).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\submit\projectors\WebContent\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,11 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">코드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주수인, 진주연, 
-한아현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,6 +786,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,109 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1903,102 +1898,102 @@
   <dimension ref="A1:BH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.58203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="7" customWidth="1"/>
-    <col min="6" max="11" width="3.58203125" style="1"/>
+    <col min="3" max="3" width="41.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="7" customWidth="1"/>
+    <col min="6" max="11" width="3.625" style="1"/>
     <col min="12" max="12" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="3.58203125" style="1"/>
+    <col min="13" max="32" width="3.625" style="1"/>
     <col min="33" max="33" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="3.58203125" style="1"/>
+    <col min="34" max="39" width="3.625" style="1"/>
     <col min="40" max="40" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="3.58203125" style="1"/>
+    <col min="41" max="46" width="3.625" style="1"/>
     <col min="47" max="47" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="60" width="3.58203125" style="1"/>
+    <col min="48" max="60" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="2" customFormat="1" ht="17">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:60" s="2" customFormat="1" ht="16.5">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="42"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="58"/>
     </row>
-    <row r="2" spans="1:60" s="2" customFormat="1" ht="17.5" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="47">
+    <row r="2" spans="1:60" s="2" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="31">
         <v>17</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="31">
         <v>18</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="31">
         <v>19</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="31">
         <v>20</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="31">
         <v>21</v>
       </c>
       <c r="K2" s="3">
@@ -2007,19 +2002,19 @@
       <c r="L2" s="4">
         <v>23</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="31">
         <v>24</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="31">
         <v>25</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="31">
         <v>26</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="31">
         <v>27</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="31">
         <v>28</v>
       </c>
       <c r="R2" s="3">
@@ -2028,19 +2023,19 @@
       <c r="S2" s="4">
         <v>30</v>
       </c>
-      <c r="T2" s="47">
+      <c r="T2" s="31">
         <v>31</v>
       </c>
-      <c r="U2" s="47">
+      <c r="U2" s="31">
         <v>1</v>
       </c>
-      <c r="V2" s="47">
+      <c r="V2" s="31">
         <v>2</v>
       </c>
-      <c r="W2" s="47">
+      <c r="W2" s="31">
         <v>3</v>
       </c>
-      <c r="X2" s="47">
+      <c r="X2" s="31">
         <v>4</v>
       </c>
       <c r="Y2" s="3">
@@ -2049,19 +2044,19 @@
       <c r="Z2" s="4">
         <v>6</v>
       </c>
-      <c r="AA2" s="47">
+      <c r="AA2" s="31">
         <v>7</v>
       </c>
-      <c r="AB2" s="47">
+      <c r="AB2" s="31">
         <v>8</v>
       </c>
-      <c r="AC2" s="47">
+      <c r="AC2" s="31">
         <v>9</v>
       </c>
-      <c r="AD2" s="47">
+      <c r="AD2" s="31">
         <v>10</v>
       </c>
-      <c r="AE2" s="47">
+      <c r="AE2" s="31">
         <v>11</v>
       </c>
       <c r="AF2" s="3">
@@ -2070,21 +2065,21 @@
       <c r="AG2" s="4">
         <v>13</v>
       </c>
-      <c r="AH2" s="47">
+      <c r="AH2" s="31">
         <v>14</v>
       </c>
-      <c r="AI2" s="40">
+      <c r="AI2" s="26">
         <v>15</v>
       </c>
-      <c r="AJ2" s="48">
+      <c r="AJ2" s="32">
         <v>16</v>
       </c>
-      <c r="AK2" s="49">
+      <c r="AK2" s="33">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2096,7 +2091,7 @@
       <c r="D3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="35">
         <v>45134</v>
       </c>
       <c r="F3" s="6"/>
@@ -2109,7 +2104,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="50"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -2128,9 +2123,9 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="43"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="28"/>
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -2156,7 +2151,7 @@
       <c r="BH3"/>
     </row>
     <row r="4" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2161,7 @@
       <c r="D4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="38">
         <v>45137</v>
       </c>
       <c r="F4" s="5"/>
@@ -2182,7 +2177,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="53"/>
+      <c r="S4" s="37"/>
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
       <c r="V4" s="5"/>
@@ -2198,9 +2193,9 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="43"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="28"/>
       <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -2226,7 +2221,7 @@
       <c r="BH4"/>
     </row>
     <row r="5" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2231,7 @@
       <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="38">
         <v>45138</v>
       </c>
       <c r="F5" s="5"/>
@@ -2253,7 +2248,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="59"/>
+      <c r="T5" s="43"/>
       <c r="U5" s="6"/>
       <c r="V5" s="22"/>
       <c r="W5" s="5"/>
@@ -2268,9 +2263,9 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="43"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="28"/>
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
@@ -2296,7 +2291,7 @@
       <c r="BH5"/>
     </row>
     <row r="6" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2336,9 +2331,9 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="43"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="28"/>
       <c r="AL6"/>
       <c r="AM6"/>
       <c r="AN6"/>
@@ -2364,7 +2359,7 @@
       <c r="BH6"/>
     </row>
     <row r="7" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
@@ -2374,7 +2369,7 @@
       <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="38">
         <v>45142</v>
       </c>
       <c r="F7" s="5"/>
@@ -2395,7 +2390,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="61"/>
+      <c r="X7" s="45"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AB7" s="5"/>
@@ -2405,9 +2400,9 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="43"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28"/>
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
@@ -2433,7 +2428,7 @@
       <c r="BH7"/>
     </row>
     <row r="8" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2464,20 +2459,20 @@
       <c r="U8" s="6"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="52"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="44"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="21"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="43"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="28"/>
       <c r="AL8"/>
       <c r="AM8"/>
       <c r="AN8"/>
@@ -2503,7 +2498,7 @@
       <c r="BH8"/>
     </row>
     <row r="9" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
@@ -2543,9 +2538,9 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="43"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="28"/>
       <c r="AL9"/>
       <c r="AM9"/>
       <c r="AN9"/>
@@ -2571,7 +2566,7 @@
       <c r="BH9"/>
     </row>
     <row r="10" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
@@ -2603,7 +2598,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="63"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -2611,9 +2606,9 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="43"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="28"/>
       <c r="AL10"/>
       <c r="AM10"/>
       <c r="AN10"/>
@@ -2639,7 +2634,7 @@
       <c r="BH10"/>
     </row>
     <row r="11" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2649,7 +2644,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5"/>
@@ -2681,9 +2676,9 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="43"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="28"/>
       <c r="AL11"/>
       <c r="AM11"/>
       <c r="AN11"/>
@@ -2709,7 +2704,7 @@
       <c r="BH11"/>
     </row>
     <row r="12" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="5"/>
@@ -2747,11 +2742,11 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="62"/>
+      <c r="AG12" s="46"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="43"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="28"/>
       <c r="AL12"/>
       <c r="AM12"/>
       <c r="AN12"/>
@@ -2777,7 +2772,7 @@
       <c r="BH12"/>
     </row>
     <row r="13" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
@@ -2785,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="5"/>
@@ -2816,10 +2811,10 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="43"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="28"/>
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
@@ -2845,7 +2840,7 @@
       <c r="BH13"/>
     </row>
     <row r="14" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
@@ -2884,10 +2879,10 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="43"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="28"/>
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
@@ -2913,7 +2908,7 @@
       <c r="BH14"/>
     </row>
     <row r="15" spans="1:60" ht="43.5" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2955,9 +2950,9 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="43"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="28"/>
       <c r="AL15"/>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -2982,15 +2977,15 @@
       <c r="BG15"/>
       <c r="BH15"/>
     </row>
-    <row r="16" spans="1:60" ht="35.5" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:60" ht="35.450000000000003" customHeight="1">
+      <c r="A16" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>39</v>
@@ -3025,9 +3020,9 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="43"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="28"/>
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
@@ -3053,12 +3048,12 @@
       <c r="BH16"/>
     </row>
     <row r="17" spans="1:60" ht="33" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>44</v>
@@ -3093,9 +3088,9 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="43"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="28"/>
       <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
@@ -3121,7 +3116,7 @@
       <c r="BH17"/>
     </row>
     <row r="18" spans="1:60" ht="33" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
@@ -3129,7 +3124,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
@@ -3161,9 +3156,9 @@
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="56"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="40"/>
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
@@ -3190,17 +3185,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="U1:AK1"/>
     <mergeCell ref="F1:T1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
